--- a/Project data/Data styling.xlsx
+++ b/Project data/Data styling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldeen/Google Drive/UFL/Capstone project/Project data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldeen/Documents/Capstone/Project data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62EE5A59-4C8C-1648-9740-18015A61B564}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10219E0-8D4A-8E44-8D89-9CCAF1031212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{22690B6C-21B5-3B4B-8C08-BD2DB8DD49BD}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="33600" windowHeight="20540" xr2:uid="{22690B6C-21B5-3B4B-8C08-BD2DB8DD49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>StdDev</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Within</t>
   </si>
   <si>
-    <t xml:space="preserve">  Day</t>
-  </si>
-  <si>
     <t>Analyst</t>
   </si>
   <si>
@@ -76,6 +73,24 @@
   </si>
   <si>
     <t>Intermediate Precision</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>POV - StdDev inflation</t>
+  </si>
+  <si>
+    <t>REML - StdDev inflation</t>
   </si>
 </sst>
 </file>
@@ -83,13 +98,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,8 +137,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -126,9 +151,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,366 +473,1526 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5067DD-7AB2-8447-82C3-ADF572C4E868}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="A1:O8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="7" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.9620000000000002</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.024</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.04</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.4710000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2.722</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3">
+        <v>150</v>
+      </c>
+      <c r="D5" s="3">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.3980000000000001</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.381</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.4580000000000002</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.056</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.3610000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.373</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4.51</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>50</v>
+      </c>
+      <c r="D6" s="3">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.4569999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.9169999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>1.9390000000000001</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.871</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.758</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.9580000000000002</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3">
+        <v>150</v>
+      </c>
+      <c r="D8" s="3">
+        <v>48</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3.927</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>4.7720000000000002</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3">
+        <v>42</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.335</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.042</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.9470000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3.3210000000000002</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3">
+        <v>100</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.411</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.258</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.5089999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.288</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3.653</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="3">
+        <v>150</v>
+      </c>
+      <c r="D11" s="3">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1.095</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.915</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.151</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="K11" s="1">
+        <v>3.218</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.319</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.919</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>3.5430000000000001</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2.1709999999999998</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>3.8809999999999998</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3">
+        <v>150</v>
+      </c>
+      <c r="D14" s="3">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>5.0419999999999998</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.5579999999999998</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.9119999999999999</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.988</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.014</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2.7349999999999999</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.09</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3.1840000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.135</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1.012</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.647</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2.3639999999999999</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3">
+        <v>150</v>
+      </c>
+      <c r="D17" s="3">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.3919999999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.706</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3.3140000000000001</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4.6639999999999997</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3">
+        <v>42</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.657</v>
+      </c>
+      <c r="F18" s="1">
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3.5219999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>2.5179999999999998</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="R19" s="8"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3">
+        <v>150</v>
+      </c>
+      <c r="D20" s="3">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.4369999999999998</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3.161</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <v>4.9329999999999998</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="R20" s="8"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>50</v>
+      </c>
+      <c r="D26" s="1">
+        <v>4.556</v>
+      </c>
+      <c r="E26">
+        <v>39.1</v>
+      </c>
+      <c r="F26">
+        <v>3.7</v>
+      </c>
+      <c r="G26">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="1">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="E27">
+        <v>41.2</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="3">
+        <v>150</v>
+      </c>
+      <c r="D28" s="1">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="E28">
+        <v>55.3</v>
+      </c>
+      <c r="F28">
+        <v>5.4</v>
+      </c>
+      <c r="G28">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
+        <v>50</v>
+      </c>
+      <c r="D29" s="1">
+        <v>6.194</v>
+      </c>
+      <c r="E29">
+        <v>53.2</v>
+      </c>
+      <c r="F29">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G29">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="3">
+        <v>100</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="E30">
+        <v>49.3</v>
+      </c>
+      <c r="F30">
+        <v>4.7</v>
+      </c>
+      <c r="G30">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3">
+        <v>150</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.8390000000000004</v>
+      </c>
+      <c r="E31">
+        <v>67.3</v>
+      </c>
+      <c r="F31">
+        <v>6.5</v>
+      </c>
+      <c r="G31">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>50</v>
+      </c>
+      <c r="D32">
+        <v>4.6120000000000001</v>
+      </c>
+      <c r="E32">
+        <v>39.6</v>
+      </c>
+      <c r="F32">
+        <v>3.8</v>
+      </c>
+      <c r="G32">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="3">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>4.8630000000000004</v>
+      </c>
+      <c r="E33">
+        <v>41.7</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="3">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>6.5110000000000001</v>
+      </c>
+      <c r="E34">
+        <v>55.9</v>
+      </c>
+      <c r="F34">
+        <v>5.4</v>
+      </c>
+      <c r="G34">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>50</v>
+      </c>
+      <c r="D35" s="1">
+        <v>4.335</v>
+      </c>
+      <c r="E35">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F35">
+        <v>3.6</v>
+      </c>
+      <c r="G35">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="3">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1">
+        <v>4.798</v>
+      </c>
+      <c r="E36">
+        <v>41.2</v>
+      </c>
+      <c r="F36">
+        <v>3.9</v>
+      </c>
+      <c r="G36">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="3">
+        <v>150</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.6310000000000002</v>
+      </c>
+      <c r="E37">
+        <v>48.3</v>
+      </c>
+      <c r="F37">
+        <v>4.7</v>
+      </c>
+      <c r="G37">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>50</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.1970000000000001</v>
+      </c>
+      <c r="E38">
+        <v>44.6</v>
+      </c>
+      <c r="F38">
+        <v>4.3</v>
+      </c>
+      <c r="G38">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="3">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5.7789999999999999</v>
+      </c>
+      <c r="E39">
+        <v>49.6</v>
+      </c>
+      <c r="F39">
+        <v>4.8</v>
+      </c>
+      <c r="G39">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="3">
+        <v>150</v>
+      </c>
+      <c r="D40" s="1">
+        <v>6.2480000000000002</v>
+      </c>
+      <c r="E40">
+        <v>53.6</v>
+      </c>
+      <c r="F40">
+        <v>5.2</v>
+      </c>
+      <c r="G40">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>4.3869999999999996</v>
+      </c>
+      <c r="E41">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="F41">
+        <v>3.6</v>
+      </c>
+      <c r="G41">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="E42">
+        <v>41.7</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="3">
+        <v>150</v>
+      </c>
+      <c r="D43">
+        <v>5.69</v>
+      </c>
+      <c r="E43">
+        <v>48.8</v>
+      </c>
+      <c r="F43">
+        <v>4.7</v>
+      </c>
+      <c r="G43">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>50</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5.1440000000000001</v>
+      </c>
+      <c r="E44">
+        <v>44.2</v>
+      </c>
+      <c r="F44">
+        <v>4.2</v>
+      </c>
+      <c r="G44">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3">
+        <v>100</v>
+      </c>
+      <c r="D45" s="1">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="E45">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="F45">
+        <v>3.8</v>
+      </c>
+      <c r="G45">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="3">
+        <v>150</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6.1660000000000004</v>
+      </c>
+      <c r="E46">
+        <v>52.9</v>
+      </c>
+      <c r="F46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G46">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="3">
+        <v>50</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6.3689999999999998</v>
+      </c>
+      <c r="E47">
+        <v>54.7</v>
+      </c>
+      <c r="F47">
+        <v>5.2</v>
+      </c>
+      <c r="G47">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="3">
+        <v>100</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.242</v>
+      </c>
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>4.3</v>
+      </c>
+      <c r="G48">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="3">
+        <v>150</v>
+      </c>
+      <c r="D49" s="1">
+        <v>7.3209999999999997</v>
+      </c>
+      <c r="E49">
+        <v>62.8</v>
+      </c>
+      <c r="F49">
+        <v>6.1</v>
+      </c>
+      <c r="G49">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <v>50</v>
+      </c>
+      <c r="D50" s="8">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="E50">
+        <v>44.7</v>
+      </c>
+      <c r="F50">
+        <v>4.3</v>
+      </c>
+      <c r="G50">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="3">
+        <v>100</v>
+      </c>
+      <c r="D51" s="8">
+        <v>4.68</v>
+      </c>
+      <c r="E51">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F51">
+        <v>3.9</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="3">
+        <v>150</v>
+      </c>
+      <c r="D52" s="8">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="E52">
+        <v>53.5</v>
+      </c>
+      <c r="F52">
+        <v>5.2</v>
+      </c>
+      <c r="G52">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>4.556</v>
+      </c>
+      <c r="D56">
+        <v>6.194</v>
+      </c>
+      <c r="E56">
+        <v>4.6120000000000001</v>
+      </c>
+      <c r="F56" s="10">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="D57">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="E57">
+        <v>4.8630000000000004</v>
+      </c>
+      <c r="F57" s="10">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G57" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58">
+        <v>150</v>
+      </c>
+      <c r="C58">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="D58">
+        <v>7.8390000000000004</v>
+      </c>
+      <c r="E58">
+        <v>6.5110000000000001</v>
+      </c>
+      <c r="F58" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>50</v>
+      </c>
+      <c r="C59">
+        <v>4.335</v>
+      </c>
+      <c r="D59">
+        <v>5.1970000000000001</v>
+      </c>
+      <c r="E59">
+        <v>4.3869999999999996</v>
+      </c>
+      <c r="F59" s="10">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="C60">
+        <v>4.798</v>
+      </c>
+      <c r="D60">
+        <v>5.7789999999999999</v>
+      </c>
+      <c r="E60">
+        <v>4.8559999999999999</v>
+      </c>
+      <c r="F60" s="10">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G60" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61">
+        <v>150</v>
+      </c>
+      <c r="C61">
+        <v>5.6310000000000002</v>
+      </c>
+      <c r="D61">
+        <v>6.2480000000000002</v>
+      </c>
+      <c r="E61">
+        <v>5.69</v>
+      </c>
+      <c r="F61" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B62">
         <v>50</v>
       </c>
-      <c r="C3" s="6">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.9620000000000002</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.3940000000000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1.7150000000000001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.024</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.82</v>
-      </c>
-      <c r="L3" s="4">
-        <v>4.556</v>
-      </c>
-      <c r="M3" s="5">
-        <v>39.1</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.7</v>
-      </c>
-      <c r="O3" s="5">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6">
+      <c r="C62">
+        <v>5.1440000000000001</v>
+      </c>
+      <c r="D62">
+        <v>6.3689999999999998</v>
+      </c>
+      <c r="E62">
+        <v>5.2060000000000004</v>
+      </c>
+      <c r="F62" s="10">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G62" s="10">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63">
         <v>100</v>
       </c>
-      <c r="C4" s="6">
-        <v>42</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.0510000000000002</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2.7040000000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2.04</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.4710000000000001</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.8340000000000001</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1.2170000000000001</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2.722</v>
-      </c>
-      <c r="L4" s="4">
-        <v>4.8049999999999997</v>
-      </c>
-      <c r="M4" s="5">
-        <v>41.2</v>
-      </c>
-      <c r="N4" s="5">
-        <v>4</v>
-      </c>
-      <c r="O4" s="5">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6">
+      <c r="C63">
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="D63">
+        <v>5.242</v>
+      </c>
+      <c r="E63">
+        <v>4.68</v>
+      </c>
+      <c r="F63" s="10">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="G63" s="10">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64">
         <v>150</v>
       </c>
-      <c r="C5" s="6">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4">
-        <v>3.3980000000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.381</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2.7770000000000001</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2.4580000000000002</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.056</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.3610000000000002</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1.373</v>
-      </c>
-      <c r="K5" s="4">
-        <v>4.51</v>
-      </c>
-      <c r="L5" s="4">
-        <v>6.4429999999999996</v>
-      </c>
-      <c r="M5" s="5">
-        <v>55.3</v>
-      </c>
-      <c r="N5" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="O5" s="5">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>50</v>
-      </c>
-      <c r="C6" s="6">
-        <v>42</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4.4569999999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2.9169999999999998</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>1.9390000000000001</v>
-      </c>
-      <c r="L6" s="4">
-        <v>6.194</v>
-      </c>
-      <c r="M6" s="5">
-        <v>53.2</v>
-      </c>
-      <c r="N6" s="5">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O6" s="5">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6">
-        <v>100</v>
-      </c>
-      <c r="C7" s="6">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2.871</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2.758</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2.9580000000000002</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <v>2.8980000000000001</v>
-      </c>
-      <c r="L7" s="4">
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="M7" s="5">
-        <v>49.3</v>
-      </c>
-      <c r="N7" s="5">
-        <v>4.7</v>
-      </c>
-      <c r="O7" s="5">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6">
-        <v>150</v>
-      </c>
-      <c r="C8" s="6">
-        <v>48</v>
-      </c>
-      <c r="D8" s="4">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3.927</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
-        <v>4.7720000000000002</v>
-      </c>
-      <c r="L8" s="4">
-        <v>7.8390000000000004</v>
-      </c>
-      <c r="M8" s="5">
-        <v>67.3</v>
-      </c>
-      <c r="N8" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="O8" s="5">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>4.6120000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E18">
-        <v>100</v>
-      </c>
-      <c r="F18">
-        <v>4.8630000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E19">
-        <v>150</v>
-      </c>
-      <c r="F19">
-        <v>6.5110000000000001</v>
-      </c>
+      <c r="C64">
+        <v>6.1660000000000004</v>
+      </c>
+      <c r="D64">
+        <v>7.3209999999999997</v>
+      </c>
+      <c r="E64">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="F64" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
+  <mergeCells count="26">
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project data/Data styling.xlsx
+++ b/Project data/Data styling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pauldeen/Documents/Capstone/Project data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10219E0-8D4A-8E44-8D89-9CCAF1031212}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF9F2A8-A289-D848-A525-41184F99CF87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="33600" windowHeight="20540" xr2:uid="{22690B6C-21B5-3B4B-8C08-BD2DB8DD49BD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{22690B6C-21B5-3B4B-8C08-BD2DB8DD49BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,8 +142,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -152,13 +157,8 @@
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5067DD-7AB2-8447-82C3-ADF572C4E868}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,18 +488,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -537,7 +537,7 @@
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3">
@@ -577,7 +577,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="3">
         <v>100</v>
       </c>
@@ -615,7 +615,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="3">
         <v>150</v>
       </c>
@@ -653,7 +653,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
@@ -685,7 +685,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3">
         <v>100</v>
       </c>
@@ -715,7 +715,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <v>150</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="3">
@@ -787,7 +787,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3">
         <v>100</v>
       </c>
@@ -825,7 +825,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3">
         <v>150</v>
       </c>
@@ -863,7 +863,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
@@ -895,7 +895,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3">
         <v>100</v>
       </c>
@@ -925,7 +925,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3">
         <v>150</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="3">
@@ -997,7 +997,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="3">
         <v>100</v>
       </c>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="3">
         <v>150</v>
       </c>
@@ -1070,12 +1070,12 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
@@ -1104,11 +1104,11 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="R18" s="8"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3">
         <v>100</v>
       </c>
@@ -1135,11 +1135,11 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="R19" s="8"/>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3">
         <v>150</v>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="R20" s="8"/>
+      <c r="R20" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
@@ -1189,7 +1189,7 @@
       <c r="A26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="3">
@@ -1210,7 +1210,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="3">
         <v>100</v>
       </c>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="5"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="3">
         <v>150</v>
       </c>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="29" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="3">
@@ -1269,7 +1269,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
-      <c r="B30" s="5"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="3">
         <v>100</v>
       </c>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="3">
         <v>150</v>
       </c>
@@ -1307,68 +1307,68 @@
     </row>
     <row r="32" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>50</v>
       </c>
       <c r="D32">
-        <v>4.6120000000000001</v>
+        <v>4.556</v>
       </c>
       <c r="E32">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="F32">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G32">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="5"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="3">
         <v>100</v>
       </c>
       <c r="D33">
-        <v>4.8630000000000004</v>
+        <v>4.8049999999999997</v>
       </c>
       <c r="E33">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="F33">
         <v>4</v>
       </c>
       <c r="G33">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="5"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="3">
         <v>150</v>
       </c>
       <c r="D34">
-        <v>6.5110000000000001</v>
+        <v>6.4429999999999996</v>
       </c>
       <c r="E34">
-        <v>55.9</v>
+        <v>55.3</v>
       </c>
       <c r="F34">
         <v>5.4</v>
       </c>
       <c r="G34">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="3">
@@ -1389,7 +1389,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="3">
         <v>100</v>
       </c>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="3">
         <v>150</v>
       </c>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="3">
@@ -1448,7 +1448,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="5"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="3">
         <v>100</v>
       </c>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="3">
         <v>150</v>
       </c>
@@ -1486,55 +1486,55 @@
     </row>
     <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="3">
         <v>50</v>
       </c>
       <c r="D41">
-        <v>4.3869999999999996</v>
+        <v>4.335</v>
       </c>
       <c r="E41">
-        <v>37.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F41">
         <v>3.6</v>
       </c>
       <c r="G41">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="5"/>
+      <c r="B42" s="8"/>
       <c r="C42" s="3">
         <v>100</v>
       </c>
       <c r="D42">
-        <v>4.8559999999999999</v>
+        <v>4.798</v>
       </c>
       <c r="E42">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G42">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="3">
         <v>150</v>
       </c>
       <c r="D43">
-        <v>5.69</v>
+        <v>5.6310000000000002</v>
       </c>
       <c r="E43">
-        <v>48.8</v>
+        <v>48.3</v>
       </c>
       <c r="F43">
         <v>4.7</v>
@@ -1547,7 +1547,7 @@
       <c r="A44" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="3">
@@ -1568,7 +1568,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
-      <c r="B45" s="5"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="3">
         <v>100</v>
       </c>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
-      <c r="B46" s="5"/>
+      <c r="B46" s="8"/>
       <c r="C46" s="3">
         <v>150</v>
       </c>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="3">
@@ -1627,7 +1627,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
-      <c r="B48" s="5"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="3">
         <v>100</v>
       </c>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="B49" s="5"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="3">
         <v>150</v>
       </c>
@@ -1665,20 +1665,20 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="3">
         <v>50</v>
       </c>
-      <c r="D50" s="8">
-        <v>5.2060000000000004</v>
+      <c r="D50" s="4">
+        <v>5.1440000000000001</v>
       </c>
       <c r="E50">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="F50">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G50">
         <v>6.6</v>
@@ -1686,40 +1686,40 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
-      <c r="B51" s="5"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="3">
         <v>100</v>
       </c>
-      <c r="D51" s="8">
-        <v>4.68</v>
+      <c r="D51" s="4">
+        <v>4.6239999999999997</v>
       </c>
       <c r="E51">
-        <v>40.200000000000003</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F51">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="5"/>
+      <c r="B52" s="8"/>
       <c r="C52" s="3">
         <v>150</v>
       </c>
-      <c r="D52" s="8">
-        <v>6.2309999999999999</v>
+      <c r="D52" s="4">
+        <v>6.1660000000000004</v>
       </c>
       <c r="E52">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="F52">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G52">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1759,13 +1759,13 @@
         <v>6.194</v>
       </c>
       <c r="E56">
-        <v>4.6120000000000001</v>
-      </c>
-      <c r="F56" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0.20399999999999999</v>
+        <v>4.556</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1780,13 +1780,13 @@
         <v>5.7439999999999998</v>
       </c>
       <c r="E57">
-        <v>4.8630000000000004</v>
-      </c>
-      <c r="F57" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G57" s="10">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8049999999999997</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -1801,13 +1801,13 @@
         <v>7.8390000000000004</v>
       </c>
       <c r="E58">
-        <v>6.5110000000000001</v>
-      </c>
-      <c r="F58" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0.17499999999999999</v>
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6">
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1824,13 +1824,13 @@
         <v>5.1970000000000001</v>
       </c>
       <c r="E59">
-        <v>4.3869999999999996</v>
-      </c>
-      <c r="F59" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0.20399999999999999</v>
+        <v>4.335</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.185</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -1845,13 +1845,13 @@
         <v>5.7789999999999999</v>
       </c>
       <c r="E60">
-        <v>4.8559999999999999</v>
-      </c>
-      <c r="F60" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G60" s="10">
-        <v>9.8000000000000004E-2</v>
+        <v>4.798</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6">
+        <v>0.19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -1866,13 +1866,13 @@
         <v>6.2480000000000002</v>
       </c>
       <c r="E61">
-        <v>5.69</v>
-      </c>
-      <c r="F61" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0.17499999999999999</v>
+        <v>5.6310000000000002</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0</v>
+      </c>
+      <c r="G61" s="6">
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,13 +1889,13 @@
         <v>6.3689999999999998</v>
       </c>
       <c r="E62">
-        <v>5.2060000000000004</v>
-      </c>
-      <c r="F62" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0.20399999999999999</v>
+        <v>5.1440000000000001</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0.223</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -1910,13 +1910,13 @@
         <v>5.242</v>
       </c>
       <c r="E63">
-        <v>4.68</v>
-      </c>
-      <c r="F63" s="10">
-        <v>-1.2E-2</v>
-      </c>
-      <c r="G63" s="10">
-        <v>9.8000000000000004E-2</v>
+        <v>4.6239999999999997</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0</v>
+      </c>
+      <c r="G63" s="6">
+        <v>0.12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -1931,47 +1931,53 @@
         <v>7.3209999999999997</v>
       </c>
       <c r="E64">
-        <v>6.2309999999999999</v>
-      </c>
-      <c r="F64" s="10">
-        <v>-0.01</v>
-      </c>
-      <c r="G64" s="10">
+        <v>6.1660000000000004</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0</v>
+      </c>
+      <c r="G64" s="6">
         <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="9"/>
+      <c r="A65" s="5"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="9"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="9"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
+      <c r="A73" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="A26:A34"/>
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A44:A52"/>
@@ -1982,17 +1988,11 @@
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
